--- a/cdcMobile/Planning cdc.xlsx
+++ b/cdcMobile/Planning cdc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariot\Desktop\cdcMobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariot\Documents\GameDB\cdcMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -874,29 +874,29 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,13 +1232,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1248,99 +1248,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="46">
+      <c r="B1" s="42">
         <v>43795</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="46">
         <f>B1+7</f>
         <v>43802</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="41">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="46">
         <f t="shared" ref="J1" si="0">F1+7</f>
         <v>43809</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="41">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="46">
         <f t="shared" ref="N1" si="1">J1+7</f>
         <v>43816</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="46">
         <f>N1+21</f>
         <v>43837</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="41">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="46">
         <f t="shared" ref="V1" si="2">R1+7</f>
         <v>43844</v>
       </c>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="41">
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="46">
         <f t="shared" ref="Z1" si="3">V1+7</f>
         <v>43851</v>
       </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="41">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="46">
         <f t="shared" ref="AD1" si="4">Z1+7</f>
         <v>43858</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="41">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="46">
         <f t="shared" ref="AH1" si="5">AD1+7</f>
         <v>43865</v>
       </c>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="41">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="46">
         <f t="shared" ref="AL1" si="6">AH1+7</f>
         <v>43872</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="41">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="46">
         <f t="shared" ref="AP1" si="7">AL1+7</f>
         <v>43879</v>
       </c>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="46">
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="42">
         <f t="shared" ref="AT1" si="8">AP1+7</f>
         <v>43886</v>
       </c>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
     </row>
     <row r="2" spans="1:53" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
@@ -2327,11 +2327,14 @@
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
     </row>
-    <row r="19" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="V1:Y1"/>
@@ -2340,12 +2343,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="AX5:BA7 B3:BA3 AX9:BA15 B4:AW15">
     <cfRule type="notContainsBlanks" dxfId="4" priority="11">
@@ -2362,11 +2359,6 @@
       <formula>LEN(TRIM(AX4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(J19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -2377,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2407,7 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2430,7 +2422,7 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2445,7 +2437,7 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2460,7 +2452,7 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2475,7 +2467,7 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2490,7 +2482,7 @@
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2505,7 +2497,7 @@
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2520,7 +2512,7 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
